--- a/analysis/pre_gemini_data/Participant170/task_easy.xlsx
+++ b/analysis/pre_gemini_data/Participant170/task_easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,107 +422,103 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>conditional body</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>conditional statement</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>external method</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>loop statement</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>method_declaration</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>method2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>return2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
@@ -580,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
@@ -595,13 +579,13 @@
         <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
@@ -610,22 +594,22 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -647,13 +631,13 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -662,13 +646,13 @@
         <v>91</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L4" t="n">
         <v>30</v>
@@ -677,22 +661,22 @@
         <v>7</v>
       </c>
       <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
         <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
+        <v>12</v>
+      </c>
+      <c r="R4" t="n">
         <v>14</v>
       </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
       <c r="S4" t="n">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="T4" t="n">
         <v>3</v>
@@ -714,13 +698,13 @@
         <v>3603.89</v>
       </c>
       <c r="D5" t="n">
-        <v>45948.5</v>
+        <v>43062.2</v>
       </c>
       <c r="E5" t="n">
-        <v>7741.59</v>
+        <v>7057.55</v>
       </c>
       <c r="F5" t="n">
-        <v>19387.23</v>
+        <v>18953.42</v>
       </c>
       <c r="G5" t="n">
         <v>3770.71</v>
@@ -729,13 +713,13 @@
         <v>23047.03</v>
       </c>
       <c r="I5" t="n">
-        <v>583.92</v>
+        <v>166.82</v>
       </c>
       <c r="J5" t="n">
         <v>1351.46</v>
       </c>
       <c r="K5" t="n">
-        <v>33418.63</v>
+        <v>32250.73</v>
       </c>
       <c r="L5" t="n">
         <v>8892.969999999999</v>
@@ -744,22 +728,22 @@
         <v>1701.92</v>
       </c>
       <c r="N5" t="n">
-        <v>5138.9</v>
+        <v>4838.6</v>
       </c>
       <c r="O5" t="n">
-        <v>4371.64</v>
+        <v>3937.83</v>
       </c>
       <c r="P5" t="n">
         <v>150.17</v>
       </c>
       <c r="Q5" t="n">
-        <v>3670.49</v>
+        <v>2986.46</v>
       </c>
       <c r="R5" t="n">
-        <v>3703.94</v>
+        <v>3286.85</v>
       </c>
       <c r="S5" t="n">
-        <v>69937.02</v>
+        <v>39705.59</v>
       </c>
       <c r="T5" t="n">
         <v>717.42</v>
@@ -775,64 +759,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.01</v>
+        <v>3.14</v>
       </c>
       <c r="C6" t="n">
-        <v>1.35</v>
+        <v>2.12</v>
       </c>
       <c r="D6" t="n">
-        <v>17.26</v>
+        <v>25.35</v>
       </c>
       <c r="E6" t="n">
-        <v>2.91</v>
+        <v>4.15</v>
       </c>
       <c r="F6" t="n">
-        <v>7.28</v>
+        <v>11.16</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
         <v>23.93</v>
       </c>
       <c r="I6" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.51</v>
+        <v>0.79</v>
       </c>
       <c r="K6" t="n">
-        <v>12.55</v>
+        <v>18.97</v>
       </c>
       <c r="L6" t="n">
-        <v>3.34</v>
+        <v>5.23</v>
       </c>
       <c r="M6" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.93</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S6" t="n">
-        <v>26.47</v>
+        <v>23.35</v>
       </c>
       <c r="T6" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="7">
@@ -848,13 +832,13 @@
         <v>360.39</v>
       </c>
       <c r="D7" t="n">
-        <v>251.08</v>
+        <v>250.36</v>
       </c>
       <c r="E7" t="n">
-        <v>258.05</v>
+        <v>252.06</v>
       </c>
       <c r="F7" t="n">
-        <v>265.58</v>
+        <v>266.95</v>
       </c>
       <c r="G7" t="n">
         <v>314.23</v>
@@ -863,13 +847,13 @@
         <v>253.26</v>
       </c>
       <c r="I7" t="n">
-        <v>291.96</v>
+        <v>166.82</v>
       </c>
       <c r="J7" t="n">
         <v>270.29</v>
       </c>
       <c r="K7" t="n">
-        <v>249.39</v>
+        <v>250.01</v>
       </c>
       <c r="L7" t="n">
         <v>296.43</v>
@@ -878,22 +862,22 @@
         <v>243.13</v>
       </c>
       <c r="N7" t="n">
-        <v>395.3</v>
+        <v>403.22</v>
       </c>
       <c r="O7" t="n">
-        <v>291.44</v>
+        <v>302.91</v>
       </c>
       <c r="P7" t="n">
         <v>150.17</v>
       </c>
       <c r="Q7" t="n">
-        <v>262.18</v>
+        <v>248.87</v>
       </c>
       <c r="R7" t="n">
-        <v>246.93</v>
+        <v>234.77</v>
       </c>
       <c r="S7" t="n">
-        <v>274.26</v>
+        <v>262.95</v>
       </c>
       <c r="T7" t="n">
         <v>239.14</v>
@@ -903,27 +887,71 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.43000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>433.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="H8" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>166.82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>150.12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>417.13</v>
+      </c>
+      <c r="M8" t="n">
+        <v>166.92</v>
+      </c>
+      <c r="N8" t="n">
+        <v>300.28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>100.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>150.17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>433.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>433.78</v>
+      </c>
+      <c r="S8" t="n">
+        <v>266.96</v>
+      </c>
+      <c r="T8" t="n">
+        <v>367.05</v>
+      </c>
+      <c r="U8" t="n">
+        <v>383.73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
